--- a/Simulation.xlsx
+++ b/Simulation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kokim\source\repos\WCT\x64\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kokim\source\repos\WCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4FB215-7BCF-4EEF-8D37-5A2CACCE8D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4CD3C6-9EF0-4ECE-A8C5-48FD77AAC1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -800,7 +800,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14445603674540683"/>
+          <c:y val="0.17634259259259263"/>
+          <c:w val="0.81865507436570428"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1894,6 +1904,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58412379702537187"/>
+          <c:y val="0.56560112277631958"/>
+          <c:w val="0.33254286964129481"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2022,9 +2073,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3765,9 +3814,7 @@
       <c:valAx>
         <c:axId val="997159408"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="100000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3890,6 +3937,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73162007874015744"/>
+          <c:y val="0.57949001166520853"/>
+          <c:w val="0.19337992125984255"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8220,6 +8308,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.55634601924759408"/>
+          <c:y val="0.57949001166520853"/>
+          <c:w val="0.33254286964129481"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9422,6 +9551,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.57301268591426069"/>
+          <c:y val="0.54708260425780098"/>
+          <c:w val="0.33254286964129481"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -10372,6 +10542,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -10624,6 +10795,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58412379702537187"/>
+          <c:y val="0.52393445610965284"/>
+          <c:w val="0.33254286964129481"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -11574,6 +11786,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11826,6 +12039,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.52579046369203852"/>
+          <c:y val="0.42208260425780103"/>
+          <c:w val="0.33254286964129481"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -18735,8 +18989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -19895,7 +20149,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -20815,7 +21069,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -21735,7 +21989,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -22655,7 +22909,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -23814,7 +24068,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -24973,7 +25227,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -26132,7 +26386,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -27290,8 +27544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EBD4703-CC2F-4C60-9464-528B5FEEB374}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
